--- a/Assignement.xlsx
+++ b/Assignement.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Deval Hapani\Desktop\Analyst &amp; AI\ADVANCE EXCEL\ASSIGNMENT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Deval Hapani\Documents\GitHub\project-Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A76BEB-2401-4A7B-8A96-0687C75D2485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A83452-D4B4-4063-9C25-36AFCE4F7B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0E93D6AC-D039-4DAF-866D-11DABD998A5D}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11295" xr2:uid="{0E93D6AC-D039-4DAF-866D-11DABD998A5D}"/>
   </bookViews>
   <sheets>
     <sheet name="streaming_service_data" sheetId="1" r:id="rId1"/>
@@ -1384,7 +1384,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1564,6 +1564,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1725,12 +1731,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2214,8 +2225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE506A65-5AC7-4CCD-B321-81BAA479C56B}">
   <dimension ref="A1:W1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2315,74 +2326,74 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
         <v>2518</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="6">
         <v>45061</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="6">
         <v>45639</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="7">
         <v>7.99</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="8">
         <v>49</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="8">
         <v>3</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="8">
         <v>6</v>
       </c>
-      <c r="J2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K2" s="4">
+      <c r="J2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" s="8">
         <v>641</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="8">
         <v>117</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="4">
+      <c r="P2" s="8">
         <v>84</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="Q2" s="9">
         <v>3.3</v>
       </c>
-      <c r="R2" t="b">
-        <v>0</v>
-      </c>
-      <c r="S2" t="s">
-        <v>28</v>
-      </c>
-      <c r="T2" s="4">
+      <c r="R2" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" s="8">
         <v>2878</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" s="5" t="s">
         <v>31</v>
       </c>
     </row>
